--- a/MethodsData.xlsx
+++ b/MethodsData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pmcgrath7/Dropbox (GaTech)/McGrath/Applications/KinectPiProject/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jenny\Desktop\Kinect2_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CB4826C-1EE4-7D4D-959C-2802997CF5CC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1182ED76-DE23-481D-A192-8E641492DAB2}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8840" yWindow="4340" windowWidth="28800" windowHeight="16060" xr2:uid="{7CF51460-895B-E840-B787-836D567001DE}"/>
+    <workbookView xWindow="8835" yWindow="4335" windowWidth="28800" windowHeight="16065" xr2:uid="{7CF51460-895B-E840-B787-836D567001DE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -875,16 +875,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F1E3BCF-5D7C-864F-8289-E845EF87ACA5}">
   <dimension ref="A1:F91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" customWidth="1"/>
+    <col min="1" max="1" width="19.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>93</v>
       </c>
@@ -904,7 +904,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -912,7 +912,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" t="s">
         <v>101</v>
@@ -921,7 +921,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -929,7 +929,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="s">
         <v>102</v>
@@ -938,7 +938,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>162</v>
       </c>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="s">
         <v>102</v>
@@ -955,7 +955,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -963,7 +963,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="s">
         <v>103</v>
@@ -972,7 +972,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -986,7 +986,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>97</v>
       </c>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="s">
         <v>104</v>
@@ -1003,7 +1003,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -1011,7 +1011,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="s">
         <v>105</v>
@@ -1020,7 +1020,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -1028,13 +1028,13 @@
         <v>0</v>
       </c>
       <c r="C9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -1048,7 +1048,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -1062,7 +1062,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -1070,7 +1070,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="s">
         <v>107</v>
@@ -1079,7 +1079,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -1087,13 +1087,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>108</v>
       </c>
@@ -1107,7 +1107,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -1121,7 +1121,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>12</v>
       </c>
@@ -1135,7 +1135,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -1149,7 +1149,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -1163,7 +1163,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>15</v>
       </c>
@@ -1177,7 +1177,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>16</v>
       </c>
@@ -1191,7 +1191,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>17</v>
       </c>
@@ -1205,7 +1205,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>18</v>
       </c>
@@ -1219,7 +1219,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>19</v>
       </c>
@@ -1227,7 +1227,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23" t="s">
         <v>105</v>
@@ -1236,7 +1236,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>20</v>
       </c>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="C24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24" t="s">
         <v>105</v>
@@ -1253,7 +1253,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>21</v>
       </c>
@@ -1261,7 +1261,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25" t="s">
         <v>105</v>
@@ -1270,7 +1270,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>22</v>
       </c>
@@ -1278,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26" t="s">
         <v>105</v>
@@ -1287,7 +1287,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>23</v>
       </c>
@@ -1301,7 +1301,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>24</v>
       </c>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28" t="s">
         <v>105</v>
@@ -1318,7 +1318,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>25</v>
       </c>
@@ -1326,7 +1326,7 @@
         <v>43</v>
       </c>
       <c r="C29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E29" t="s">
         <v>116</v>
@@ -1335,7 +1335,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>26</v>
       </c>
@@ -1343,7 +1343,7 @@
         <v>43</v>
       </c>
       <c r="C30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30" t="s">
         <v>105</v>
@@ -1352,7 +1352,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>27</v>
       </c>
@@ -1360,13 +1360,13 @@
         <v>43</v>
       </c>
       <c r="C31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E31" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>28</v>
       </c>
@@ -1374,7 +1374,7 @@
         <v>43</v>
       </c>
       <c r="C32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D32" t="s">
         <v>98</v>
@@ -1383,7 +1383,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>29</v>
       </c>
@@ -1391,13 +1391,13 @@
         <v>43</v>
       </c>
       <c r="C33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E33" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>30</v>
       </c>
@@ -1411,7 +1411,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>31</v>
       </c>
@@ -1419,13 +1419,13 @@
         <v>43</v>
       </c>
       <c r="C35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E35" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>32</v>
       </c>
@@ -1439,7 +1439,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>33</v>
       </c>
@@ -1447,7 +1447,7 @@
         <v>43</v>
       </c>
       <c r="C37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E37" t="s">
         <v>122</v>
@@ -1456,7 +1456,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>34</v>
       </c>
@@ -1464,7 +1464,7 @@
         <v>43</v>
       </c>
       <c r="C38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E38" t="s">
         <v>105</v>
@@ -1473,7 +1473,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>35</v>
       </c>
@@ -1487,7 +1487,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>36</v>
       </c>
@@ -1495,13 +1495,13 @@
         <v>43</v>
       </c>
       <c r="C40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E40" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>37</v>
       </c>
@@ -1518,7 +1518,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>38</v>
       </c>
@@ -1526,13 +1526,13 @@
         <v>43</v>
       </c>
       <c r="C42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E42" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>39</v>
       </c>
@@ -1546,7 +1546,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>40</v>
       </c>
@@ -1560,7 +1560,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>41</v>
       </c>
@@ -1568,13 +1568,13 @@
         <v>43</v>
       </c>
       <c r="C45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E45" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>42</v>
       </c>
@@ -1588,7 +1588,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>44</v>
       </c>
@@ -1602,7 +1602,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>46</v>
       </c>
@@ -1616,7 +1616,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>47</v>
       </c>
@@ -1624,7 +1624,7 @@
         <v>45</v>
       </c>
       <c r="C49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D49" t="s">
         <v>99</v>
@@ -1636,7 +1636,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>48</v>
       </c>
@@ -1644,7 +1644,7 @@
         <v>45</v>
       </c>
       <c r="C50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E50" t="s">
         <v>105</v>
@@ -1653,7 +1653,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>49</v>
       </c>
@@ -1667,7 +1667,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>50</v>
       </c>
@@ -1681,7 +1681,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>51</v>
       </c>
@@ -1689,7 +1689,7 @@
         <v>45</v>
       </c>
       <c r="C53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D53" t="s">
         <v>99</v>
@@ -1698,7 +1698,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>52</v>
       </c>
@@ -1715,7 +1715,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>54</v>
       </c>
@@ -1723,13 +1723,13 @@
         <v>53</v>
       </c>
       <c r="C55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E55" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>55</v>
       </c>
@@ -1746,7 +1746,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>56</v>
       </c>
@@ -1760,7 +1760,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>57</v>
       </c>
@@ -1768,13 +1768,13 @@
         <v>53</v>
       </c>
       <c r="C58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E58" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>58</v>
       </c>
@@ -1782,13 +1782,13 @@
         <v>53</v>
       </c>
       <c r="C59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E59" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>59</v>
       </c>
@@ -1796,13 +1796,13 @@
         <v>53</v>
       </c>
       <c r="C60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E60" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>60</v>
       </c>
@@ -1810,7 +1810,7 @@
         <v>53</v>
       </c>
       <c r="C61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D61" t="s">
         <v>99</v>
@@ -1819,7 +1819,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>61</v>
       </c>
@@ -1827,13 +1827,13 @@
         <v>53</v>
       </c>
       <c r="C62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E62" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>62</v>
       </c>
@@ -1841,7 +1841,7 @@
         <v>53</v>
       </c>
       <c r="C63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D63" t="s">
         <v>99</v>
@@ -1850,7 +1850,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>63</v>
       </c>
@@ -1858,13 +1858,13 @@
         <v>64</v>
       </c>
       <c r="C64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E64" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>134</v>
       </c>
@@ -1872,13 +1872,13 @@
         <v>64</v>
       </c>
       <c r="C65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E65" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>135</v>
       </c>
@@ -1886,13 +1886,13 @@
         <v>64</v>
       </c>
       <c r="C66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E66" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>65</v>
       </c>
@@ -1900,13 +1900,13 @@
         <v>64</v>
       </c>
       <c r="C67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E67" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>66</v>
       </c>
@@ -1920,7 +1920,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>67</v>
       </c>
@@ -1928,13 +1928,13 @@
         <v>64</v>
       </c>
       <c r="C69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E69" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>68</v>
       </c>
@@ -1942,13 +1942,13 @@
         <v>64</v>
       </c>
       <c r="C70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E70" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>69</v>
       </c>
@@ -1956,13 +1956,13 @@
         <v>64</v>
       </c>
       <c r="C71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E71" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>71</v>
       </c>
@@ -1970,7 +1970,7 @@
         <v>70</v>
       </c>
       <c r="C72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D72" t="s">
         <v>99</v>
@@ -1979,7 +1979,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>72</v>
       </c>
@@ -1987,13 +1987,13 @@
         <v>70</v>
       </c>
       <c r="C73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F73" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>73</v>
       </c>
@@ -2001,13 +2001,13 @@
         <v>70</v>
       </c>
       <c r="C74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F74" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>74</v>
       </c>
@@ -2015,13 +2015,13 @@
         <v>70</v>
       </c>
       <c r="C75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F75" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>75</v>
       </c>
@@ -2029,13 +2029,13 @@
         <v>70</v>
       </c>
       <c r="C76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F76" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>76</v>
       </c>
@@ -2043,13 +2043,13 @@
         <v>70</v>
       </c>
       <c r="C77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F77" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>78</v>
       </c>
@@ -2057,7 +2057,7 @@
         <v>77</v>
       </c>
       <c r="C78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D78" t="s">
         <v>138</v>
@@ -2066,7 +2066,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>79</v>
       </c>
@@ -2074,7 +2074,7 @@
         <v>77</v>
       </c>
       <c r="C79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D79" t="s">
         <v>138</v>
@@ -2083,7 +2083,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>80</v>
       </c>
@@ -2091,7 +2091,7 @@
         <v>77</v>
       </c>
       <c r="C80" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D80" t="s">
         <v>138</v>
@@ -2100,7 +2100,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>81</v>
       </c>
@@ -2108,7 +2108,7 @@
         <v>77</v>
       </c>
       <c r="C81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D81" t="s">
         <v>138</v>
@@ -2117,7 +2117,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>83</v>
       </c>
@@ -2125,13 +2125,13 @@
         <v>77</v>
       </c>
       <c r="C82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F82" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>84</v>
       </c>
@@ -2139,13 +2139,13 @@
         <v>77</v>
       </c>
       <c r="C83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F83" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>85</v>
       </c>
@@ -2153,7 +2153,7 @@
         <v>77</v>
       </c>
       <c r="C84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D84" t="s">
         <v>137</v>
@@ -2162,7 +2162,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>82</v>
       </c>
@@ -2170,13 +2170,13 @@
         <v>77</v>
       </c>
       <c r="C85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F85" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>87</v>
       </c>
@@ -2184,13 +2184,13 @@
         <v>86</v>
       </c>
       <c r="C86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F86" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>88</v>
       </c>
@@ -2198,13 +2198,13 @@
         <v>86</v>
       </c>
       <c r="C87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F87" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>89</v>
       </c>
@@ -2212,13 +2212,13 @@
         <v>86</v>
       </c>
       <c r="C88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F88" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>90</v>
       </c>
@@ -2226,13 +2226,13 @@
         <v>86</v>
       </c>
       <c r="C89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F89" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>91</v>
       </c>
@@ -2240,13 +2240,13 @@
         <v>86</v>
       </c>
       <c r="C90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F90" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>92</v>
       </c>
@@ -2254,7 +2254,7 @@
         <v>86</v>
       </c>
       <c r="C91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F91" t="s">
         <v>163</v>
@@ -2273,9 +2273,9 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>139</v>
       </c>
